--- a/pred_ohlcv/54_21/2019-10-21 ZRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-21 ZRX ohlcv.xlsx
@@ -1978,7 +1978,7 @@
         <v>-37953.89302286039</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-39742.43802286038</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-39440.85092286039</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-34626.34662286039</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-34655.11642286039</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-34655.11642286039</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-31748.57752286039</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-33098.34692286039</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-30320.73342286039</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-30232.90342286039</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-32181.32552286038</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-32619.54302286038</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-35881.1956228604</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-37778.64212286039</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-37778.64212286039</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-32117.33032286039</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-29010.14392286039</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>27091.07197659884</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>25496.46647659883</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>25496.46647659883</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>25963.47157659883</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>25963.47157659883</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>25078.14617659883</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>21841.06537659883</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>21841.06537659883</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>21841.06537659883</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>21841.06537659883</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>21841.06537659883</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>21927.04607659883</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>23025.90957659883</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>23025.90957659883</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>22576.64687659883</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>22566.64687659883</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>42242.38509113965</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>14573.74519113965</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>32738.75198297638</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>32738.75198297638</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>32142.91068297638</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>32142.91068297638</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>32142.91068297638</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>32086.81978297638</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>30582.67308297638</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>15992.35678297638</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>14166.09038297638</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>19402.76388297638</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>19402.76388297638</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>19402.76388297638</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>19402.76388297638</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>26780.60158297638</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>26780.60158297638</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>28372.40258297638</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>26411.17018297638</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>26478.32818297638</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>27466.43008297638</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>26173.42578297638</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>26942.14888297638</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>26942.14888297638</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>26942.14888297638</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>26942.14888297638</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>27242.14888297638</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>38878.02678297638</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>38852.96396890603</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>36529.31096890603</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>34819.52966890603</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>24502.26775669228</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>26613.89355669228</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>28833.28445669228</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>28933.28445669228</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>28933.28445669228</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>28318.75515669228</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>26799.01265669228</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>26799.01265669228</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>27066.50785669228</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>27066.50785669228</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>25455.97385669228</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>9195.280956692282</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>11142.82585669228</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>11142.82585669228</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>16403.22845669228</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>15876.58685669228</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>16362.73265669228</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>17417.68505669228</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>17417.68505669228</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>102915.5518897905</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>101633.1378897905</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>101341.3561897905</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>101341.3561897905</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>101341.3561897905</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>99898.49448979052</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>97352.46308979052</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>97352.46308979052</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>97353.46308979052</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>81353.36338979051</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>75163.9284897905</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>63670.12144293713</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>63670.12144293713</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>62925.94154293714</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>64841.91444293714</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>2482.089726765921</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>2482.089726765921</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>1385.009526765921</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>1385.009526765921</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>1385.009526765921</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-782.6733732340788</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-782.6733732340788</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-782.6733732340788</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-782.6733732340788</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-782.6733732340788</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-782.6733732340788</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>5396.547926765921</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>6688.001926765921</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>6114.124126765921</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>5763.215126765921</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>5763.215126765921</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>5763.215126765921</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>5877.250426765921</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>5227.250426765921</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>6345.81992676592</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>7134.87192676592</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>8804.41402676592</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>7790.867326765921</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>5165.302326765921</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>5165.302326765921</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>5157.372426765921</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>5158.372426765921</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>5158.372426765921</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>5158.372426765921</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>4881.909326765921</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>4727.099926765921</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>745.715326765921</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>745.715326765921</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>745.715326765921</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-83086.83117323408</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-98502.06237323412</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-88821.07707323412</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-88271.25487323411</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-88271.25487323411</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-87616.75857323411</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-89301.17177323411</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-89301.17177323411</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-89301.17177323411</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-79401.17177323411</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-69251.17177323411</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-21 ZRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-21 ZRX ohlcv.xlsx
@@ -1978,7 +1978,7 @@
         <v>-37953.89302286039</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-39742.43802286038</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-39440.85092286039</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-34626.34662286039</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-34655.11642286039</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-34655.11642286039</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-31748.57752286039</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-33098.34692286039</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-30320.73342286039</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-30232.90342286039</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-32181.32552286038</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-32619.54302286038</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-35881.1956228604</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-37778.64212286039</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-37778.64212286039</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-32117.33032286039</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-29010.14392286039</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>27091.07197659884</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>25496.46647659883</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>25496.46647659883</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>25963.47157659883</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>25963.47157659883</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>25078.14617659883</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>21841.06537659883</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>21841.06537659883</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>21841.06537659883</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>21841.06537659883</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>21841.06537659883</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>21927.04607659883</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>23025.90957659883</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>23025.90957659883</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>22576.64687659883</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>22566.64687659883</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>42242.38509113965</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>14573.74519113965</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>32738.75198297638</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>32738.75198297638</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>32142.91068297638</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>32142.91068297638</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>32142.91068297638</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>32086.81978297638</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>30582.67308297638</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>15992.35678297638</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>14166.09038297638</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>19402.76388297638</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>19402.76388297638</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>19402.76388297638</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>19402.76388297638</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>26780.60158297638</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>26780.60158297638</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>28372.40258297638</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>26411.17018297638</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>26478.32818297638</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>27466.43008297638</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>26173.42578297638</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>26942.14888297638</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>26942.14888297638</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>26942.14888297638</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>26942.14888297638</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>27242.14888297638</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>38878.02678297638</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>38852.96396890603</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>36529.31096890603</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>34819.52966890603</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>24502.26775669228</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>26613.89355669228</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>28833.28445669228</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>28933.28445669228</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>28933.28445669228</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>28318.75515669228</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>26799.01265669228</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>26799.01265669228</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>27066.50785669228</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>27066.50785669228</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>25455.97385669228</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>9195.280956692282</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>11142.82585669228</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>11142.82585669228</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>16403.22845669228</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>15876.58685669228</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>16362.73265669228</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>17417.68505669228</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>17417.68505669228</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>49520.55525306598</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>53839.75858979054</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>102915.5518897905</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>101633.1378897905</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>104108.9304897905</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>101341.3561897905</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>101341.3561897905</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>101341.3561897905</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>96332.44488979052</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>99898.49448979052</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>97352.46308979052</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>97352.46308979052</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>81353.36338979051</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>75163.9284897905</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>62836.98744293714</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>65702.20814293715</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>66229.04654293714</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>65373.79704293714</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>64318.02234293714</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>59651.40804293714</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>59651.40804293714</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>68575.37434293714</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>68490.13964293714</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>2482.089726765921</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>2482.089726765921</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>1385.009526765921</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>1385.009526765921</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>1385.009526765921</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-782.6733732340788</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-782.6733732340788</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-782.6733732340788</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-782.6733732340788</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-782.6733732340788</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-782.6733732340788</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>5396.547926765921</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>6688.001926765921</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>6114.124126765921</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>5763.215126765921</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>5763.215126765921</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>5763.215126765921</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>5877.250426765921</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>5227.250426765921</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>6345.81992676592</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>7134.87192676592</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>8804.41402676592</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>7790.867326765921</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>5165.302326765921</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>5165.302326765921</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>5157.372426765921</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>5158.372426765921</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>5158.372426765921</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>5158.372426765921</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>4881.909326765921</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>4727.099926765921</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>745.715326765921</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>745.715326765921</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>745.715326765921</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-83086.83117323408</v>
       </c>
       <c r="H578">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-98502.06237323412</v>
       </c>
       <c r="H588">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-88821.07707323412</v>
       </c>
       <c r="H590">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-88271.25487323411</v>
       </c>
       <c r="H594">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-88271.25487323411</v>
       </c>
       <c r="H595">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-87616.75857323411</v>
       </c>
       <c r="H598">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-89301.17177323411</v>
       </c>
       <c r="H600">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-89301.17177323411</v>
       </c>
       <c r="H601">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-69251.17177323411</v>
       </c>
       <c r="H604">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
